--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-377421.0559449456</v>
+        <v>-379909.7949744621</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>197.4149500449639</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>93.7720948929514</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>181.0223306216243</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>18.93482921065054</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>73.60272522340068</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>213.579440252594</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>274.3094752533433</v>
       </c>
       <c r="D5" t="n">
-        <v>158.5596236696478</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>64.00401990556455</v>
       </c>
       <c r="Y7" t="n">
-        <v>129.3290918536845</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>146.5990350281149</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>283.0562148121674</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.8439838838378136</v>
+        <v>140.047417509743</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922734</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>24.83266606352613</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>81.54417886827336</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>35.02467705292102</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272901</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>205.5383435306669</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.82863813027318</v>
+        <v>28.68281686619609</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>119.6760079449677</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.7063133373728</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>35.03063761899546</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>171.0609515538979</v>
       </c>
       <c r="X28" t="n">
-        <v>11.79076481679262</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,7 +2956,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>14.73874327217562</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>215.7183996732927</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,10 +3193,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1.29409613628068</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>151.6499090771556</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>281.6778446725264</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>162.7401913819099</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065884</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261726</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652696</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796252</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>921.7704558796252</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>563.5047572728747</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>563.5047572728747</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>563.5047572728747</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,16 +4340,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4361,19 +4361,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2914.618117749829</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064744</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080124</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986296</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>384.3315924698002</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C4" t="n">
-        <v>384.3315924698002</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2149530574644</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574644</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>85.63820654395161</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
         <v>315.6219318279954</v>
@@ -4516,22 +4516,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1661.262476820975</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1372.159609946619</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1117.475121740732</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>828.0579517037711</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X4" t="n">
-        <v>600.0684008057538</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y4" t="n">
-        <v>384.3315924698002</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1480.516858765517</v>
+        <v>1955.701599376001</v>
       </c>
       <c r="C5" t="n">
-        <v>1480.516858765517</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
         <v>1320.35562273557</v>
@@ -4583,7 +4583,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066531</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805451</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y5" t="n">
-        <v>1867.116698829639</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460.171619808316</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C7" t="n">
-        <v>460.171619808316</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959802</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959802</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="X7" t="n">
-        <v>590.8070661251691</v>
+        <v>1229.026210608642</v>
       </c>
       <c r="Y7" t="n">
-        <v>460.171619808316</v>
+        <v>1008.233631465111</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1899.13013587303</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.167618932618</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
         <v>66.51211643218342</v>
@@ -4802,16 +4802,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4835,19 +4835,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3067.235319774533</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410102</v>
+        <v>2736.172432430963</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410102</v>
+        <v>2383.403777160848</v>
       </c>
       <c r="X8" t="n">
-        <v>2675.869307912963</v>
+        <v>2009.938018899768</v>
       </c>
       <c r="Y8" t="n">
-        <v>2285.729975937151</v>
+        <v>1619.798686923957</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>627.8744564335971</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C10" t="n">
-        <v>627.8744564335971</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4960,16 +4960,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1512.989539511271</v>
+        <v>1696.002052957391</v>
       </c>
       <c r="V10" t="n">
-        <v>1258.305051305384</v>
+        <v>1441.317564751505</v>
       </c>
       <c r="W10" t="n">
-        <v>1258.305051305384</v>
+        <v>1151.900394714544</v>
       </c>
       <c r="X10" t="n">
-        <v>1030.315500407367</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="Y10" t="n">
-        <v>809.5229212638368</v>
+        <v>923.9108438165264</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5030,61 +5030,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>432.9862109052757</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>286.0962634073653</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>118.9001641222407</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>118.9001641222407</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1350.99156482496</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5267,58 +5267,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961527</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>740.5562989961527</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656159</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5732,58 +5732,58 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123002</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>763.7541388327625</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>594.8179559048556</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>444.7013164925198</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>296.7882229101267</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S22" t="n">
-        <v>2330.088019603117</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="T22" t="n">
-        <v>2110.486554626058</v>
+        <v>2227.3616186032</v>
       </c>
       <c r="U22" t="n">
-        <v>1821.411327970255</v>
+        <v>1938.286391947397</v>
       </c>
       <c r="V22" t="n">
-        <v>1566.726839764368</v>
+        <v>1683.60190374151</v>
       </c>
       <c r="W22" t="n">
-        <v>1277.309669727408</v>
+        <v>1394.18473370455</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>1166.195182806532</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>945.4026036630022</v>
       </c>
     </row>
     <row r="23">
@@ -5978,58 +5978,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>94.56320294380259</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>244.2098454714573</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714573</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,55 +6121,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6184,13 +6184,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1465.362586952987</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1237.37303605497</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1016.58045691144</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6236,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>634.5603720565524</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683104</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1327.958229442984</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1099.968678544967</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>879.1760994014371</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.843151638089</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101821</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>422.7903292978464</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>2009.464245195835</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611859</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683287</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961526</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1337.934786622704</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1889.844516861991</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2313.46766635706</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>868.6673633290468</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C34" t="n">
-        <v>699.7311804011399</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888042</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>2043.199616443681</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1788.515128237794</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>1499.097958200834</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X34" t="n">
-        <v>1271.108407302816</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.315828159286</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="35">
@@ -6929,49 +6929,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>372.4964262156759</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>867.8220324314346</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1465.200520057987</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612593</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.506784258106</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.822296052219</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,13 +7248,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7266,10 +7266,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>870.3164745246301</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,31 +7330,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
         <v>2264.108249235165</v>
@@ -7369,13 +7369,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.747069396417</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.7575184984</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.96493935487</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7397,40 +7397,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319335</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656828</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150035</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942666</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580125</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345487</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384031</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7740,10 +7740,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7798,13 +7798,13 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7822,22 +7822,22 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>213.5067756084895</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>157.2230770659506</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>77.41759119918756</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>145.9462240527685</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>56.4331702550394</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892479</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>144.1654765207638</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>113.5907959652913</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>80.64613085857729</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.0033420516641</v>
+        <v>151.1491633157412</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>25.74504007796351</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>65.3199726642718</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>251.4923607175955</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>115.4620467826931</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9188905722445</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>131.6952193743936</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>70.46607471595149</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,10 +25081,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25120,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>284.8903782529634</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>134.8730892594354</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25357,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>4.84515366406464</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>4.506629716717953</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251542.9259350416</v>
+        <v>251542.9259350417</v>
       </c>
       <c r="C2" t="n">
         <v>287364.6194524993</v>
@@ -26323,31 +26323,31 @@
         <v>282501.3098915021</v>
       </c>
       <c r="F2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="G2" t="n">
-        <v>282501.3098915024</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="H2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="I2" t="n">
         <v>282501.3098915023</v>
       </c>
       <c r="J2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="K2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="L2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="M2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="N2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
         <v>287364.6194524992</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31937.37202069067</v>
+        <v>31937.37202069083</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.0322517935</v>
       </c>
       <c r="O4" t="n">
         <v>19157.89151488699</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1217073.132374635</v>
+        <v>-1217329.001614046</v>
       </c>
       <c r="C6" t="n">
-        <v>89076.61186796115</v>
+        <v>89076.61186796118</v>
       </c>
       <c r="D6" t="n">
-        <v>89076.61186796134</v>
+        <v>89076.61186796117</v>
       </c>
       <c r="E6" t="n">
-        <v>-155200.7139915538</v>
+        <v>-155235.4519169893</v>
       </c>
       <c r="F6" t="n">
-        <v>170211.7478158012</v>
+        <v>170177.0098903658</v>
       </c>
       <c r="G6" t="n">
-        <v>170211.7478158019</v>
+        <v>170177.0098903659</v>
       </c>
       <c r="H6" t="n">
-        <v>170211.7478158016</v>
+        <v>170177.0098903658</v>
       </c>
       <c r="I6" t="n">
-        <v>170211.7478158017</v>
+        <v>170177.0098903659</v>
       </c>
       <c r="J6" t="n">
-        <v>-47319.4545814758</v>
+        <v>-47354.19250691147</v>
       </c>
       <c r="K6" t="n">
-        <v>170211.7478158015</v>
+        <v>170177.0098903658</v>
       </c>
       <c r="L6" t="n">
-        <v>170211.7478158015</v>
+        <v>170177.0098903659</v>
       </c>
       <c r="M6" t="n">
-        <v>85156.7198802897</v>
+        <v>85121.98195485417</v>
       </c>
       <c r="N6" t="n">
-        <v>170211.7478158016</v>
+        <v>170177.0098903658</v>
       </c>
       <c r="O6" t="n">
         <v>145614.894090065</v>
       </c>
       <c r="P6" t="n">
-        <v>165042.612083697</v>
+        <v>165042.6120836968</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
@@ -26799,16 +26799,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>146.7299278485106</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.005213099500764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>90.96341651766426</v>
       </c>
       <c r="D5" t="n">
-        <v>196.1234179510351</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>161.7056354834726</v>
       </c>
       <c r="Y7" t="n">
-        <v>89.25556149841026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>104.3961369307871</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>86.67488586630162</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>285.367854321775</v>
+        <v>146.1644206958699</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.009283859537983e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-1.009283859537984e-12</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-9.003997547551988e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31853,7 +31853,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>363.5371514786841</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31862,7 +31862,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>704.140493903809</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>433.9798411722591</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>569.5723171953896</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O21" t="n">
-        <v>198.560797075695</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>100.2764607028593</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,16 +32810,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>194.5189324111248</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>209.9499448422519</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>344.9857809048113</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>266.3926848685833</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>381.285518532932</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>263.7590256391492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35501,7 +35501,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>220.9409070342396</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>572.7987818204757</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>426.9760727509451</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O21" t="n">
-        <v>55.96455263125056</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7540807028593007</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>55.96455263125056</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>71.39556506237767</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>205.0040068187898</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>128.5512458942243</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,22 +37625,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>132.4173135558158</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
